--- a/FBG_Needle_Calibration_Data/needle_1/Calibration/90 deg/12-28-19_15-52/curvature_data.xlsx
+++ b/FBG_Needle_Calibration_Data/needle_1/Calibration/90 deg/12-28-19_15-52/curvature_data.xlsx
@@ -393,142 +393,142 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>57249.295201</v>
+        <v>57174.099198</v>
       </c>
       <c r="B3">
-        <v>-4.5066468256e-05</v>
+        <v>-4.7686388836e-05</v>
       </c>
       <c r="C3">
-        <v>-0.00022034762599</v>
+        <v>-0.00010184104343</v>
       </c>
       <c r="D3">
-        <v>-0.00014647851918</v>
+        <v>-0.00010030446179</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>57196.963199</v>
+        <v>57185.563198</v>
       </c>
       <c r="B4">
-        <v>-7.9729344781e-05</v>
+        <v>-6.5692855355e-05</v>
       </c>
       <c r="C4">
-        <v>-0.00036152308678</v>
+        <v>-0.00023331444175</v>
       </c>
       <c r="D4">
-        <v>-0.00019049425241</v>
+        <v>-0.00014218480968</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>57174.099198</v>
+        <v>57196.963199</v>
       </c>
       <c r="B5">
-        <v>-4.7686388836e-05</v>
+        <v>-7.9729344781e-05</v>
       </c>
       <c r="C5">
-        <v>-0.00010184104343</v>
+        <v>-0.00036152308678</v>
       </c>
       <c r="D5">
-        <v>-0.00010030446179</v>
+        <v>-0.00019049425241</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>57259.363202</v>
+        <v>57206.831199</v>
       </c>
       <c r="B6">
-        <v>-2.7105525847e-05</v>
+        <v>-0.0001310432</v>
       </c>
       <c r="C6">
-        <v>-7.3748075631e-05</v>
+        <v>-0.0004898983</v>
       </c>
       <c r="D6">
-        <v>-0.00010632254471</v>
+        <v>-0.0002421922</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>57228.2312</v>
+        <v>57216.9632</v>
       </c>
       <c r="B7">
-        <v>-0.0001328597</v>
+        <v>-0.0001990709</v>
       </c>
       <c r="C7">
-        <v>-0.0004783279</v>
+        <v>-0.0006117986</v>
       </c>
       <c r="D7">
-        <v>-0.0002525431</v>
+        <v>-0.0002986723</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>57216.9632</v>
+        <v>57228.2312</v>
       </c>
       <c r="B8">
-        <v>-0.0001990709</v>
+        <v>-0.0001328597</v>
       </c>
       <c r="C8">
-        <v>-0.0006117986</v>
+        <v>-0.0004783279</v>
       </c>
       <c r="D8">
-        <v>-0.0002986723</v>
+        <v>-0.0002525431</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>57206.831199</v>
+        <v>57239.295201</v>
       </c>
       <c r="B9">
-        <v>-0.0001310432</v>
+        <v>-9.6435615214e-05</v>
       </c>
       <c r="C9">
-        <v>-0.0004898983</v>
+        <v>-0.00035007086983</v>
       </c>
       <c r="D9">
-        <v>-0.0002421922</v>
+        <v>-0.00020339063642</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>57269.027202</v>
+        <v>57249.295201</v>
       </c>
       <c r="B10">
-        <v>-6.7248343522e-06</v>
+        <v>-4.5066468256e-05</v>
       </c>
       <c r="C10">
-        <v>-1.1370427622e-05</v>
+        <v>-0.00022034762599</v>
       </c>
       <c r="D10">
-        <v>-2.5136127169e-05</v>
+        <v>-0.00014647851918</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>57185.563198</v>
+        <v>57259.363202</v>
       </c>
       <c r="B11">
-        <v>-6.5692855355e-05</v>
+        <v>-2.7105525847e-05</v>
       </c>
       <c r="C11">
-        <v>-0.00023331444175</v>
+        <v>-7.3748075631e-05</v>
       </c>
       <c r="D11">
-        <v>-0.00014218480968</v>
+        <v>-0.00010632254471</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>57239.295201</v>
+        <v>57269.027202</v>
       </c>
       <c r="B12">
-        <v>-9.6435615214e-05</v>
+        <v>-6.7248343522e-06</v>
       </c>
       <c r="C12">
-        <v>-0.00035007086983</v>
+        <v>-1.1370427622e-05</v>
       </c>
       <c r="D12">
-        <v>-0.00020339063642</v>
+        <v>-2.5136127169e-05</v>
       </c>
     </row>
   </sheetData>
